--- a/Информация о проходах/Журкин Л. Н..xlsx
+++ b/Информация о проходах/Журкин Л. Н..xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +439,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-06-03 09:14:45</t>
+          <t>2024-05-13 16:30:50</t>
         </is>
       </c>
     </row>
@@ -471,17 +471,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-06-03 18:07:04</t>
+          <t>2024-05-15 09:11:30</t>
         </is>
       </c>
     </row>
@@ -503,15 +503,687 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-05-15 18:09:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-05-16 09:52:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-05-16 17:59:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-05-17 09:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-05-17 18:15:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-05-17 18:15:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-05-20 09:17:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-05-20 18:24:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-05-21 09:25:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-05-22 18:08:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-05-23 09:31:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-05-24 18:12:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-05-27 09:30:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-05-28 09:26:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-05-29 09:20:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-05-29 18:03:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-05-30 09:29:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-05-31 09:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-05-31 18:06:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024-06-03 09:14:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:07:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Журкин Л. Н.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Начальник  службы безопасности</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Служба безопасности</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>2024-06-04 09:20:15</t>
         </is>

--- a/Информация о проходах/Журкин Л. Н..xlsx
+++ b/Информация о проходах/Журкин Л. Н..xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +439,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-13 16:30:50</t>
+          <t>2024-06-03 09:14:45</t>
         </is>
       </c>
     </row>
@@ -471,17 +471,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-15 09:11:30</t>
+          <t>2024-06-03 18:07:04</t>
         </is>
       </c>
     </row>
@@ -503,17 +503,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-05-15 18:09:02</t>
+          <t>2024-06-04 09:20:15</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-05-16 09:52:33</t>
+          <t>2024-06-05 09:19:46</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-05-16 17:59:45</t>
+          <t>2024-06-05 18:28:43</t>
         </is>
       </c>
     </row>
@@ -599,17 +599,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-05-17 09:31:14</t>
+          <t>2024-06-06 18:37:39</t>
         </is>
       </c>
     </row>
@@ -631,17 +631,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-05-17 18:15:19</t>
+          <t>2024-06-07 09:39:10</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-05-17 18:15:33</t>
+          <t>2024-06-07 18:02:38</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-05-20 09:17:54</t>
+          <t>2024-06-11 08:58:39</t>
         </is>
       </c>
     </row>
@@ -727,465 +727,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-05-20 18:24:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Журкин Л. Н.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Начальник  службы безопасности</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Служба безопасности</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2024-05-21 09:25:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Журкин Л. Н.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Начальник  службы безопасности</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Служба безопасности</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2024-05-22 18:08:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Журкин Л. Н.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Начальник  службы безопасности</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Служба безопасности</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2024-05-23 09:31:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Журкин Л. Н.</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Начальник  службы безопасности</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Служба безопасности</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2024-05-24 18:12:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Журкин Л. Н.</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Начальник  службы безопасности</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Служба безопасности</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2024-05-27 09:30:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Журкин Л. Н.</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Начальник  службы безопасности</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Служба безопасности</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2024-05-28 09:26:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Журкин Л. Н.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Начальник  службы безопасности</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Служба безопасности</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2024-05-29 09:20:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Журкин Л. Н.</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Начальник  службы безопасности</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Служба безопасности</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2024-05-29 18:03:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Журкин Л. Н.</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Начальник  службы безопасности</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Служба безопасности</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2024-05-30 09:29:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Журкин Л. Н.</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Начальник  службы безопасности</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Служба безопасности</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2024-05-31 09:46:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Журкин Л. Н.</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Начальник  службы безопасности</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Служба безопасности</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2024-05-31 18:06:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Журкин Л. Н.</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Начальник  службы безопасности</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Служба безопасности</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2024-06-03 09:14:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Журкин Л. Н.</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Начальник  службы безопасности</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Служба безопасности</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2024-06-03 18:07:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Журкин Л. Н.</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Начальник  службы безопасности</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Служба безопасности</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2024-06-04 09:20:15</t>
+          <t>2024-07-02 08:42:19</t>
         </is>
       </c>
     </row>
